--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Saa1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Saa1-Cd36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,25 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Saa1</t>
+  </si>
+  <si>
+    <t>Cd36</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Saa1</t>
-  </si>
-  <si>
-    <t>Cd36</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -549,10 +549,10 @@
         <v>0.128052</v>
       </c>
       <c r="I2">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>404.808258</v>
+        <v>406.247131</v>
       </c>
       <c r="N2">
-        <v>809.616516</v>
+        <v>812.4942619999999</v>
       </c>
       <c r="O2">
-        <v>0.3790446557934784</v>
+        <v>0.418920806894236</v>
       </c>
       <c r="P2">
-        <v>0.2925703530363589</v>
+        <v>0.332649449546309</v>
       </c>
       <c r="Q2">
-        <v>17.278835684472</v>
+        <v>17.340252539604</v>
       </c>
       <c r="R2">
-        <v>103.673014106832</v>
+        <v>104.041515237624</v>
       </c>
       <c r="S2">
-        <v>0.3302045435375155</v>
+        <v>0.418920806894236</v>
       </c>
       <c r="T2">
-        <v>0.2548725022246913</v>
+        <v>0.332649449546309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.128052</v>
       </c>
       <c r="I3">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,16 +623,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.07899866666666666</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N3">
         <v>0.236996</v>
       </c>
       <c r="O3">
-        <v>7.397087836782816E-05</v>
+        <v>8.146318498817605E-05</v>
       </c>
       <c r="P3">
-        <v>8.564301989635413E-05</v>
+        <v>9.703033317505086E-05</v>
       </c>
       <c r="Q3">
         <v>0.003371979088</v>
@@ -641,10 +641,10 @@
         <v>0.030347811792</v>
       </c>
       <c r="S3">
-        <v>6.443969002909771E-05</v>
+        <v>8.146318498817605E-05</v>
       </c>
       <c r="T3">
-        <v>7.460786970561621E-05</v>
+        <v>9.703033317505086E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -673,10 +673,10 @@
         <v>0.128052</v>
       </c>
       <c r="I4">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>203.2086053333333</v>
+        <v>67.95401966666667</v>
       </c>
       <c r="N4">
-        <v>609.625816</v>
+        <v>203.862059</v>
       </c>
       <c r="O4">
-        <v>0.1902756041672602</v>
+        <v>0.07007397856667395</v>
       </c>
       <c r="P4">
-        <v>0.220299903327563</v>
+        <v>0.08346471462185807</v>
       </c>
       <c r="Q4">
-        <v>8.673756110048</v>
+        <v>2.900549375452</v>
       </c>
       <c r="R4">
-        <v>78.063804990432</v>
+        <v>26.104944379068</v>
       </c>
       <c r="S4">
-        <v>0.1657584879777539</v>
+        <v>0.07007397856667395</v>
       </c>
       <c r="T4">
-        <v>0.1919141396872013</v>
+        <v>0.08346471462185807</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -735,10 +735,10 @@
         <v>0.128052</v>
       </c>
       <c r="I5">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.847119</v>
+        <v>60.4994735</v>
       </c>
       <c r="N5">
-        <v>63.694238</v>
+        <v>120.998947</v>
       </c>
       <c r="O5">
-        <v>0.02982024210427285</v>
+        <v>0.06238687321411865</v>
       </c>
       <c r="P5">
-        <v>0.02301712641697377</v>
+        <v>0.04953909830225118</v>
       </c>
       <c r="Q5">
-        <v>1.359362427396</v>
+        <v>2.582359526874</v>
       </c>
       <c r="R5">
-        <v>8.156174564376</v>
+        <v>15.494157161244</v>
       </c>
       <c r="S5">
-        <v>0.02597788751725499</v>
+        <v>0.06238687321411865</v>
       </c>
       <c r="T5">
-        <v>0.02005135702586756</v>
+        <v>0.04953909830225118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,10 +797,10 @@
         <v>0.128052</v>
       </c>
       <c r="I6">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>339.5928036666666</v>
+        <v>51.597487</v>
       </c>
       <c r="N6">
-        <v>1018.778411</v>
+        <v>154.792461</v>
       </c>
       <c r="O6">
-        <v>0.3179797714891823</v>
+        <v>0.05320717178862945</v>
       </c>
       <c r="P6">
-        <v>0.3681549887898912</v>
+        <v>0.06337475764914204</v>
       </c>
       <c r="Q6">
-        <v>14.495179231708</v>
+        <v>2.202387135108</v>
       </c>
       <c r="R6">
-        <v>130.456613085372</v>
+        <v>19.821484215972</v>
       </c>
       <c r="S6">
-        <v>0.2770079031425708</v>
+        <v>0.05320717178862945</v>
       </c>
       <c r="T6">
-        <v>0.3207180161132792</v>
+        <v>0.06337475764914204</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>0.128052</v>
       </c>
       <c r="I7">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.434049</v>
+        <v>383.3697356666667</v>
       </c>
       <c r="N7">
-        <v>265.302147</v>
+        <v>1150.109207</v>
       </c>
       <c r="O7">
-        <v>0.08280575556743855</v>
+        <v>0.3953297063513538</v>
       </c>
       <c r="P7">
-        <v>0.09587198540931691</v>
+        <v>0.4708749495472647</v>
       </c>
       <c r="Q7">
-        <v>3.774718947516</v>
+        <v>16.363753797196</v>
       </c>
       <c r="R7">
-        <v>33.972470527644</v>
+        <v>147.273784174764</v>
       </c>
       <c r="S7">
-        <v>0.0721361884450966</v>
+        <v>0.3953297063513538</v>
       </c>
       <c r="T7">
-        <v>0.08351882738947594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.006313333333333334</v>
-      </c>
-      <c r="H8">
-        <v>0.01894</v>
-      </c>
-      <c r="I8">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="J8">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>404.808258</v>
-      </c>
-      <c r="N8">
-        <v>809.616516</v>
-      </c>
-      <c r="O8">
-        <v>0.3790446557934784</v>
-      </c>
-      <c r="P8">
-        <v>0.2925703530363589</v>
-      </c>
-      <c r="Q8">
-        <v>2.55568946884</v>
-      </c>
-      <c r="R8">
-        <v>15.33413681304</v>
-      </c>
-      <c r="S8">
-        <v>0.04884011225596278</v>
-      </c>
-      <c r="T8">
-        <v>0.03769785081166756</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.006313333333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.01894</v>
-      </c>
-      <c r="I9">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="J9">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.07899866666666666</v>
-      </c>
-      <c r="N9">
-        <v>0.236996</v>
-      </c>
-      <c r="O9">
-        <v>7.397087836782816E-05</v>
-      </c>
-      <c r="P9">
-        <v>8.564301989635413E-05</v>
-      </c>
-      <c r="Q9">
-        <v>0.0004987449155555556</v>
-      </c>
-      <c r="R9">
-        <v>0.00448870424</v>
-      </c>
-      <c r="S9">
-        <v>9.531188338730444E-06</v>
-      </c>
-      <c r="T9">
-        <v>1.103515019073791E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.006313333333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.01894</v>
-      </c>
-      <c r="I10">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="J10">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>203.2086053333333</v>
-      </c>
-      <c r="N10">
-        <v>609.625816</v>
-      </c>
-      <c r="O10">
-        <v>0.1902756041672602</v>
-      </c>
-      <c r="P10">
-        <v>0.220299903327563</v>
-      </c>
-      <c r="Q10">
-        <v>1.282923661671111</v>
-      </c>
-      <c r="R10">
-        <v>11.54631295504</v>
-      </c>
-      <c r="S10">
-        <v>0.02451711618950629</v>
-      </c>
-      <c r="T10">
-        <v>0.02838576364036168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.006313333333333334</v>
-      </c>
-      <c r="H11">
-        <v>0.01894</v>
-      </c>
-      <c r="I11">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="J11">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>31.847119</v>
-      </c>
-      <c r="N11">
-        <v>63.694238</v>
-      </c>
-      <c r="O11">
-        <v>0.02982024210427285</v>
-      </c>
-      <c r="P11">
-        <v>0.02301712641697377</v>
-      </c>
-      <c r="Q11">
-        <v>0.2010614779533333</v>
-      </c>
-      <c r="R11">
-        <v>1.20636886772</v>
-      </c>
-      <c r="S11">
-        <v>0.00384235458701785</v>
-      </c>
-      <c r="T11">
-        <v>0.002965769391106205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.006313333333333334</v>
-      </c>
-      <c r="H12">
-        <v>0.01894</v>
-      </c>
-      <c r="I12">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="J12">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>339.5928036666666</v>
-      </c>
-      <c r="N12">
-        <v>1018.778411</v>
-      </c>
-      <c r="O12">
-        <v>0.3179797714891823</v>
-      </c>
-      <c r="P12">
-        <v>0.3681549887898912</v>
-      </c>
-      <c r="Q12">
-        <v>2.143962567148889</v>
-      </c>
-      <c r="R12">
-        <v>19.29566310434</v>
-      </c>
-      <c r="S12">
-        <v>0.04097186834661147</v>
-      </c>
-      <c r="T12">
-        <v>0.04743697267661192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.006313333333333334</v>
-      </c>
-      <c r="H13">
-        <v>0.01894</v>
-      </c>
-      <c r="I13">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="J13">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>88.434049</v>
-      </c>
-      <c r="N13">
-        <v>265.302147</v>
-      </c>
-      <c r="O13">
-        <v>0.08280575556743855</v>
-      </c>
-      <c r="P13">
-        <v>0.09587198540931691</v>
-      </c>
-      <c r="Q13">
-        <v>0.5583136293533334</v>
-      </c>
-      <c r="R13">
-        <v>5.02482266418</v>
-      </c>
-      <c r="S13">
-        <v>0.01066956712234194</v>
-      </c>
-      <c r="T13">
-        <v>0.01235315801984096</v>
+        <v>0.4708749495472647</v>
       </c>
     </row>
   </sheetData>
